--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.7234892821097</v>
+        <v>17.13692466666667</v>
       </c>
       <c r="H2">
-        <v>16.7234892821097</v>
+        <v>51.410774</v>
       </c>
       <c r="I2">
-        <v>0.5414645864400586</v>
+        <v>0.538539545062134</v>
       </c>
       <c r="J2">
-        <v>0.5414645864400586</v>
+        <v>0.538539545062134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.28815517485791</v>
+        <v>1.376025</v>
       </c>
       <c r="N2">
-        <v>1.28815517485791</v>
+        <v>4.128075</v>
       </c>
       <c r="O2">
-        <v>0.2008493763674279</v>
+        <v>0.1961144671983135</v>
       </c>
       <c r="P2">
-        <v>0.2008493763674279</v>
+        <v>0.1961144671983135</v>
       </c>
       <c r="Q2">
-        <v>21.54244926043041</v>
+        <v>23.58083676445001</v>
       </c>
       <c r="R2">
-        <v>21.54244926043041</v>
+        <v>212.22753088005</v>
       </c>
       <c r="S2">
-        <v>0.108752824511533</v>
+        <v>0.1056153959450825</v>
       </c>
       <c r="T2">
-        <v>0.108752824511533</v>
+        <v>0.1056153959450825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.7234892821097</v>
+        <v>17.13692466666667</v>
       </c>
       <c r="H3">
-        <v>16.7234892821097</v>
+        <v>51.410774</v>
       </c>
       <c r="I3">
-        <v>0.5414645864400586</v>
+        <v>0.538539545062134</v>
       </c>
       <c r="J3">
-        <v>0.5414645864400586</v>
+        <v>0.538539545062134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.9494806492248</v>
+        <v>2.250698333333333</v>
       </c>
       <c r="N3">
-        <v>1.9494806492248</v>
+        <v>6.752095</v>
       </c>
       <c r="O3">
-        <v>0.3039633580483498</v>
+        <v>0.3207750618381198</v>
       </c>
       <c r="P3">
-        <v>0.3039633580483498</v>
+        <v>0.3207750618381198</v>
       </c>
       <c r="Q3">
-        <v>32.6021187429912</v>
+        <v>38.57004778572556</v>
       </c>
       <c r="R3">
-        <v>32.6021187429912</v>
+        <v>347.13043007153</v>
       </c>
       <c r="S3">
-        <v>0.1645853939585812</v>
+        <v>0.1727500558695789</v>
       </c>
       <c r="T3">
-        <v>0.1645853939585812</v>
+        <v>0.1727500558695789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.7234892821097</v>
+        <v>17.13692466666667</v>
       </c>
       <c r="H4">
-        <v>16.7234892821097</v>
+        <v>51.410774</v>
       </c>
       <c r="I4">
-        <v>0.5414645864400586</v>
+        <v>0.538539545062134</v>
       </c>
       <c r="J4">
-        <v>0.5414645864400586</v>
+        <v>0.538539545062134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.17590251074088</v>
+        <v>3.389714666666666</v>
       </c>
       <c r="N4">
-        <v>3.17590251074088</v>
+        <v>10.169144</v>
       </c>
       <c r="O4">
-        <v>0.4951872655842223</v>
+        <v>0.4831104709635667</v>
       </c>
       <c r="P4">
-        <v>0.4951872655842223</v>
+        <v>0.4831104709635668</v>
       </c>
       <c r="Q4">
-        <v>53.11217159940039</v>
+        <v>58.08928488416178</v>
       </c>
       <c r="R4">
-        <v>53.11217159940039</v>
+        <v>522.803563957456</v>
       </c>
       <c r="S4">
-        <v>0.2681263679699444</v>
+        <v>0.2601740932474725</v>
       </c>
       <c r="T4">
-        <v>0.2681263679699444</v>
+        <v>0.2601740932474725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3735191953607</v>
+        <v>11.55317066666667</v>
       </c>
       <c r="H5">
-        <v>11.3735191953607</v>
+        <v>34.659512</v>
       </c>
       <c r="I5">
-        <v>0.3682459900322405</v>
+        <v>0.3630662674822902</v>
       </c>
       <c r="J5">
-        <v>0.3682459900322405</v>
+        <v>0.3630662674822902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.28815517485791</v>
+        <v>1.376025</v>
       </c>
       <c r="N5">
-        <v>1.28815517485791</v>
+        <v>4.128075</v>
       </c>
       <c r="O5">
-        <v>0.2008493763674279</v>
+        <v>0.1961144671983135</v>
       </c>
       <c r="P5">
-        <v>0.2008493763674279</v>
+        <v>0.1961144671983135</v>
       </c>
       <c r="Q5">
-        <v>14.65085760784966</v>
+        <v>15.8974516666</v>
       </c>
       <c r="R5">
-        <v>14.65085760784966</v>
+        <v>143.0770649994</v>
       </c>
       <c r="S5">
-        <v>0.07396197744778157</v>
+        <v>0.07120254760496969</v>
       </c>
       <c r="T5">
-        <v>0.07396197744778157</v>
+        <v>0.0712025476049697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3735191953607</v>
+        <v>11.55317066666667</v>
       </c>
       <c r="H6">
-        <v>11.3735191953607</v>
+        <v>34.659512</v>
       </c>
       <c r="I6">
-        <v>0.3682459900322405</v>
+        <v>0.3630662674822902</v>
       </c>
       <c r="J6">
-        <v>0.3682459900322405</v>
+        <v>0.3630662674822902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.9494806492248</v>
+        <v>2.250698333333333</v>
       </c>
       <c r="N6">
-        <v>1.9494806492248</v>
+        <v>6.752095</v>
       </c>
       <c r="O6">
-        <v>0.3039633580483498</v>
+        <v>0.3207750618381198</v>
       </c>
       <c r="P6">
-        <v>0.3039633580483498</v>
+        <v>0.3207750618381198</v>
       </c>
       <c r="Q6">
-        <v>22.1724555849425</v>
+        <v>26.00270196418222</v>
       </c>
       <c r="R6">
-        <v>22.1724555849425</v>
+        <v>234.02431767764</v>
       </c>
       <c r="S6">
-        <v>0.111933287718039</v>
+        <v>0.1164626044029669</v>
       </c>
       <c r="T6">
-        <v>0.111933287718039</v>
+        <v>0.116462604402967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3735191953607</v>
+        <v>11.55317066666667</v>
       </c>
       <c r="H7">
-        <v>11.3735191953607</v>
+        <v>34.659512</v>
       </c>
       <c r="I7">
-        <v>0.3682459900322405</v>
+        <v>0.3630662674822902</v>
       </c>
       <c r="J7">
-        <v>0.3682459900322405</v>
+        <v>0.3630662674822902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.17590251074088</v>
+        <v>3.389714666666666</v>
       </c>
       <c r="N7">
-        <v>3.17590251074088</v>
+        <v>10.169144</v>
       </c>
       <c r="O7">
-        <v>0.4951872655842223</v>
+        <v>0.4831104709635667</v>
       </c>
       <c r="P7">
-        <v>0.4951872655842223</v>
+        <v>0.4831104709635668</v>
       </c>
       <c r="Q7">
-        <v>36.12118816850564</v>
+        <v>39.16195205530311</v>
       </c>
       <c r="R7">
-        <v>36.12118816850564</v>
+        <v>352.4575684977279</v>
       </c>
       <c r="S7">
-        <v>0.18235072486642</v>
+        <v>0.1754011154743535</v>
       </c>
       <c r="T7">
-        <v>0.18235072486642</v>
+        <v>0.1754011154743535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.78864813039906</v>
+        <v>3.131012</v>
       </c>
       <c r="H8">
-        <v>2.78864813039906</v>
+        <v>9.393036</v>
       </c>
       <c r="I8">
-        <v>0.0902894235277009</v>
+        <v>0.09839418745557586</v>
       </c>
       <c r="J8">
-        <v>0.0902894235277009</v>
+        <v>0.09839418745557586</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.28815517485791</v>
+        <v>1.376025</v>
       </c>
       <c r="N8">
-        <v>1.28815517485791</v>
+        <v>4.128075</v>
       </c>
       <c r="O8">
-        <v>0.2008493763674279</v>
+        <v>0.1961144671983135</v>
       </c>
       <c r="P8">
-        <v>0.2008493763674279</v>
+        <v>0.1961144671983135</v>
       </c>
       <c r="Q8">
-        <v>3.592211520031385</v>
+        <v>4.3083507873</v>
       </c>
       <c r="R8">
-        <v>3.592211520031385</v>
+        <v>38.7751570857</v>
       </c>
       <c r="S8">
-        <v>0.0181345744081133</v>
+        <v>0.01929652364826124</v>
       </c>
       <c r="T8">
-        <v>0.0181345744081133</v>
+        <v>0.01929652364826124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.78864813039906</v>
+        <v>3.131012</v>
       </c>
       <c r="H9">
-        <v>2.78864813039906</v>
+        <v>9.393036</v>
       </c>
       <c r="I9">
-        <v>0.0902894235277009</v>
+        <v>0.09839418745557586</v>
       </c>
       <c r="J9">
-        <v>0.0902894235277009</v>
+        <v>0.09839418745557586</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.9494806492248</v>
+        <v>2.250698333333333</v>
       </c>
       <c r="N9">
-        <v>1.9494806492248</v>
+        <v>6.752095</v>
       </c>
       <c r="O9">
-        <v>0.3039633580483498</v>
+        <v>0.3207750618381198</v>
       </c>
       <c r="P9">
-        <v>0.3039633580483498</v>
+        <v>0.3207750618381198</v>
       </c>
       <c r="Q9">
-        <v>5.436415567709884</v>
+        <v>7.046963490046667</v>
       </c>
       <c r="R9">
-        <v>5.436415567709884</v>
+        <v>63.42267141042</v>
       </c>
       <c r="S9">
-        <v>0.02744467637172965</v>
+        <v>0.0315624015655739</v>
       </c>
       <c r="T9">
-        <v>0.02744467637172965</v>
+        <v>0.0315624015655739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.78864813039906</v>
+        <v>3.131012</v>
       </c>
       <c r="H10">
-        <v>2.78864813039906</v>
+        <v>9.393036</v>
       </c>
       <c r="I10">
-        <v>0.0902894235277009</v>
+        <v>0.09839418745557586</v>
       </c>
       <c r="J10">
-        <v>0.0902894235277009</v>
+        <v>0.09839418745557586</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.17590251074088</v>
+        <v>3.389714666666666</v>
       </c>
       <c r="N10">
-        <v>3.17590251074088</v>
+        <v>10.169144</v>
       </c>
       <c r="O10">
-        <v>0.4951872655842223</v>
+        <v>0.4831104709635667</v>
       </c>
       <c r="P10">
-        <v>0.4951872655842223</v>
+        <v>0.4831104709635668</v>
       </c>
       <c r="Q10">
-        <v>8.856474598907235</v>
+        <v>10.61323729790933</v>
       </c>
       <c r="R10">
-        <v>8.856474598907235</v>
+        <v>95.519135681184</v>
       </c>
       <c r="S10">
-        <v>0.04471017274785796</v>
+        <v>0.04753526224174073</v>
       </c>
       <c r="T10">
-        <v>0.04471017274785796</v>
+        <v>0.04753526224174073</v>
       </c>
     </row>
   </sheetData>
